--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\dotnet\ExcelUpload\ExcelExport\ExcelExport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E296E00-210D-4B0A-846D-ADCE166D0F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDADB00-6D6E-4538-8EF8-49AE4F6D5B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E275B29F-73AA-422B-9C68-42F82B6F50B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Testt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>National
+Averages</t>
+  </si>
+  <si>
+    <t>0-150</t>
+  </si>
+  <si>
+    <t>150-300</t>
+  </si>
+  <si>
+    <t>300-600</t>
+  </si>
+  <si>
+    <t>600-1000</t>
+  </si>
+  <si>
+    <t>1000-1400</t>
+  </si>
+  <si>
+    <t>1400-1800</t>
+  </si>
+  <si>
+    <t>1800+</t>
   </si>
 </sst>
 </file>
@@ -63,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,7 +134,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -111,7 +146,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -158,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -193,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -344,16 +413,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7DBE87-0B99-45E1-8225-05A64DC5DF4B}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>7.71</v>
+      </c>
+      <c r="C2">
+        <v>6.95</v>
+      </c>
+      <c r="D2">
+        <v>7.28</v>
+      </c>
+      <c r="E2">
+        <v>7.49</v>
+      </c>
+      <c r="F2">
+        <v>7.65</v>
+      </c>
+      <c r="G2">
+        <v>7.82</v>
+      </c>
+      <c r="H2">
+        <v>7.99</v>
+      </c>
+      <c r="I2">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.71</v>
+      </c>
+      <c r="C3">
+        <v>6.95</v>
+      </c>
+      <c r="D3">
+        <v>7.28</v>
+      </c>
+      <c r="E3">
+        <v>7.49</v>
+      </c>
+      <c r="F3">
+        <v>7.65</v>
+      </c>
+      <c r="G3">
+        <v>7.82</v>
+      </c>
+      <c r="H3">
+        <v>7.99</v>
+      </c>
+      <c r="I3">
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDADB00-6D6E-4538-8EF8-49AE4F6D5B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD81F64-92E5-4A1A-855B-082FC5CF77D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E275B29F-73AA-422B-9C68-42F82B6F50B5}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7DBE87-0B99-45E1-8225-05A64DC5DF4B}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,1719 @@
         <v>8.25</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.08</v>
+      </c>
+      <c r="C4">
+        <v>7.42</v>
+      </c>
+      <c r="D4">
+        <v>7.61</v>
+      </c>
+      <c r="E4">
+        <v>7.88</v>
+      </c>
+      <c r="F4">
+        <v>8.5</v>
+      </c>
+      <c r="G4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H4">
+        <v>10.23</v>
+      </c>
+      <c r="I4">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.92</v>
+      </c>
+      <c r="C5">
+        <v>7.61</v>
+      </c>
+      <c r="D5">
+        <v>7.99</v>
+      </c>
+      <c r="E5">
+        <v>8.34</v>
+      </c>
+      <c r="F5">
+        <v>9.26</v>
+      </c>
+      <c r="G5">
+        <v>11.8</v>
+      </c>
+      <c r="H5">
+        <v>13.1</v>
+      </c>
+      <c r="I5">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12.21</v>
+      </c>
+      <c r="C6">
+        <v>7.71</v>
+      </c>
+      <c r="D6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E6">
+        <v>8.81</v>
+      </c>
+      <c r="F6">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G6">
+        <v>13.75</v>
+      </c>
+      <c r="H6">
+        <v>15.59</v>
+      </c>
+      <c r="I6">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13.44</v>
+      </c>
+      <c r="C7">
+        <v>7.81</v>
+      </c>
+      <c r="D7">
+        <v>8.25</v>
+      </c>
+      <c r="E7">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F7">
+        <v>10.33</v>
+      </c>
+      <c r="G7">
+        <v>15.67</v>
+      </c>
+      <c r="H7">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="I7">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15.55</v>
+      </c>
+      <c r="C8">
+        <v>7.91</v>
+      </c>
+      <c r="D8">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E8">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F8">
+        <v>13.77</v>
+      </c>
+      <c r="G8">
+        <v>17.93</v>
+      </c>
+      <c r="H8">
+        <v>20.83</v>
+      </c>
+      <c r="I8">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17.21</v>
+      </c>
+      <c r="C9">
+        <v>8.15</v>
+      </c>
+      <c r="D9">
+        <v>9.41</v>
+      </c>
+      <c r="E9">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F9">
+        <v>15.43</v>
+      </c>
+      <c r="G9">
+        <v>19.86</v>
+      </c>
+      <c r="H9">
+        <v>23.48</v>
+      </c>
+      <c r="I9">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>19.04</v>
+      </c>
+      <c r="C10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D10">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E10">
+        <v>11.16</v>
+      </c>
+      <c r="F10">
+        <v>16.84</v>
+      </c>
+      <c r="G10">
+        <v>21.82</v>
+      </c>
+      <c r="H10">
+        <v>25.85</v>
+      </c>
+      <c r="I10">
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20.71</v>
+      </c>
+      <c r="C11">
+        <v>9.01</v>
+      </c>
+      <c r="D11">
+        <v>10.25</v>
+      </c>
+      <c r="E11">
+        <v>11.62</v>
+      </c>
+      <c r="F11">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="G11">
+        <v>23.74</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>22.28</v>
+      </c>
+      <c r="C12">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D12">
+        <v>10.67</v>
+      </c>
+      <c r="E12">
+        <v>11.69</v>
+      </c>
+      <c r="F12">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="G12">
+        <v>25.64</v>
+      </c>
+      <c r="H12">
+        <v>30.79</v>
+      </c>
+      <c r="I12">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>24.45</v>
+      </c>
+      <c r="C13">
+        <v>10.67</v>
+      </c>
+      <c r="D13">
+        <v>12.77</v>
+      </c>
+      <c r="E13">
+        <v>13.69</v>
+      </c>
+      <c r="F13">
+        <v>21.31</v>
+      </c>
+      <c r="G13">
+        <v>27.52</v>
+      </c>
+      <c r="H13">
+        <v>33.51</v>
+      </c>
+      <c r="I13">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>26.48</v>
+      </c>
+      <c r="C14">
+        <v>11.32</v>
+      </c>
+      <c r="D14">
+        <v>13.58</v>
+      </c>
+      <c r="E14">
+        <v>15.93</v>
+      </c>
+      <c r="F14">
+        <v>22.81</v>
+      </c>
+      <c r="G14">
+        <v>30.01</v>
+      </c>
+      <c r="H14">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="I14">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>27.72</v>
+      </c>
+      <c r="C15">
+        <v>11.91</v>
+      </c>
+      <c r="D15">
+        <v>14.36</v>
+      </c>
+      <c r="E15">
+        <v>16.68</v>
+      </c>
+      <c r="F15">
+        <v>24.03</v>
+      </c>
+      <c r="G15">
+        <v>32.21</v>
+      </c>
+      <c r="H15">
+        <v>37.69</v>
+      </c>
+      <c r="I15">
+        <v>43.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>29.21</v>
+      </c>
+      <c r="C16">
+        <v>12.52</v>
+      </c>
+      <c r="D16">
+        <v>15.15</v>
+      </c>
+      <c r="E16">
+        <v>17.57</v>
+      </c>
+      <c r="F16">
+        <v>25.43</v>
+      </c>
+      <c r="G16">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="H16">
+        <v>39.79</v>
+      </c>
+      <c r="I16">
+        <v>45.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>30.23</v>
+      </c>
+      <c r="C17">
+        <v>13.01</v>
+      </c>
+      <c r="D17">
+        <v>15.94</v>
+      </c>
+      <c r="E17">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="F17">
+        <v>26.74</v>
+      </c>
+      <c r="G17">
+        <v>35.33</v>
+      </c>
+      <c r="H17">
+        <v>40.56</v>
+      </c>
+      <c r="I17">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>31.84</v>
+      </c>
+      <c r="C18">
+        <v>13.45</v>
+      </c>
+      <c r="D18">
+        <v>16.79</v>
+      </c>
+      <c r="E18">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="F18">
+        <v>28.07</v>
+      </c>
+      <c r="G18">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="H18">
+        <v>42.84</v>
+      </c>
+      <c r="I18">
+        <v>49.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>33.43</v>
+      </c>
+      <c r="C19">
+        <v>13.88</v>
+      </c>
+      <c r="D19">
+        <v>17.57</v>
+      </c>
+      <c r="E19">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="F19">
+        <v>29.44</v>
+      </c>
+      <c r="G19">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="H19">
+        <v>45.07</v>
+      </c>
+      <c r="I19">
+        <v>52.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>34.99</v>
+      </c>
+      <c r="C20">
+        <v>14.15</v>
+      </c>
+      <c r="D20">
+        <v>18.11</v>
+      </c>
+      <c r="E20">
+        <v>21.26</v>
+      </c>
+      <c r="F20">
+        <v>30.76</v>
+      </c>
+      <c r="G20">
+        <v>41.31</v>
+      </c>
+      <c r="H20">
+        <v>47.29</v>
+      </c>
+      <c r="I20">
+        <v>54.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>36.35</v>
+      </c>
+      <c r="C21">
+        <v>14.48</v>
+      </c>
+      <c r="D21">
+        <v>18.53</v>
+      </c>
+      <c r="E21">
+        <v>21.75</v>
+      </c>
+      <c r="F21">
+        <v>31.57</v>
+      </c>
+      <c r="G21">
+        <v>43.16</v>
+      </c>
+      <c r="H21">
+        <v>49.49</v>
+      </c>
+      <c r="I21">
+        <v>57.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>37.57</v>
+      </c>
+      <c r="C22">
+        <v>15.05</v>
+      </c>
+      <c r="D22">
+        <v>18.82</v>
+      </c>
+      <c r="E22">
+        <v>22.19</v>
+      </c>
+      <c r="F22">
+        <v>32.15</v>
+      </c>
+      <c r="G22">
+        <v>44.28</v>
+      </c>
+      <c r="H22">
+        <v>51.34</v>
+      </c>
+      <c r="I22">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>38.14</v>
+      </c>
+      <c r="C23">
+        <v>15.71</v>
+      </c>
+      <c r="D23">
+        <v>19.27</v>
+      </c>
+      <c r="E23">
+        <v>22.7</v>
+      </c>
+      <c r="F23">
+        <v>32.72</v>
+      </c>
+      <c r="G23">
+        <v>44.63</v>
+      </c>
+      <c r="H23">
+        <v>51.82</v>
+      </c>
+      <c r="I23">
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="C24">
+        <v>16.21</v>
+      </c>
+      <c r="D24">
+        <v>19.79</v>
+      </c>
+      <c r="E24">
+        <v>23.46</v>
+      </c>
+      <c r="F24">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="G24">
+        <v>44.93</v>
+      </c>
+      <c r="H24">
+        <v>52.22</v>
+      </c>
+      <c r="I24">
+        <v>61.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>39.18</v>
+      </c>
+      <c r="C25">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="D25">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="E25">
+        <v>24.02</v>
+      </c>
+      <c r="F25">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="G25">
+        <v>45.18</v>
+      </c>
+      <c r="H25">
+        <v>52.58</v>
+      </c>
+      <c r="I25">
+        <v>62.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="C26">
+        <v>17.37</v>
+      </c>
+      <c r="D26">
+        <v>21.12</v>
+      </c>
+      <c r="E26">
+        <v>25.38</v>
+      </c>
+      <c r="F26">
+        <v>35.32</v>
+      </c>
+      <c r="G26">
+        <v>46.13</v>
+      </c>
+      <c r="H26">
+        <v>53.95</v>
+      </c>
+      <c r="I26">
+        <v>63.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>41.51</v>
+      </c>
+      <c r="C27">
+        <v>18.04</v>
+      </c>
+      <c r="D27">
+        <v>21.87</v>
+      </c>
+      <c r="E27">
+        <v>26.99</v>
+      </c>
+      <c r="F27">
+        <v>36.5</v>
+      </c>
+      <c r="G27">
+        <v>46.81</v>
+      </c>
+      <c r="H27">
+        <v>55.3</v>
+      </c>
+      <c r="I27">
+        <v>64.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>43.32</v>
+      </c>
+      <c r="C28">
+        <v>19.13</v>
+      </c>
+      <c r="D28">
+        <v>23.45</v>
+      </c>
+      <c r="E28">
+        <v>29.81</v>
+      </c>
+      <c r="F28">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="G28">
+        <v>47.95</v>
+      </c>
+      <c r="H28">
+        <v>56.66</v>
+      </c>
+      <c r="I28">
+        <v>66.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>45.32</v>
+      </c>
+      <c r="C29">
+        <v>20.27</v>
+      </c>
+      <c r="D29">
+        <v>24.5</v>
+      </c>
+      <c r="E29">
+        <v>31.63</v>
+      </c>
+      <c r="F29">
+        <v>41.91</v>
+      </c>
+      <c r="G29">
+        <v>48.6</v>
+      </c>
+      <c r="H29">
+        <v>57.98</v>
+      </c>
+      <c r="I29">
+        <v>69.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>46.6</v>
+      </c>
+      <c r="C30">
+        <v>20.89</v>
+      </c>
+      <c r="D30">
+        <v>24.83</v>
+      </c>
+      <c r="E30">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="F30">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>49.26</v>
+      </c>
+      <c r="H30">
+        <v>59.33</v>
+      </c>
+      <c r="I30">
+        <v>71.760000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>47.63</v>
+      </c>
+      <c r="C31">
+        <v>21.53</v>
+      </c>
+      <c r="D31">
+        <v>25.08</v>
+      </c>
+      <c r="E31">
+        <v>33.4</v>
+      </c>
+      <c r="F31">
+        <v>43.57</v>
+      </c>
+      <c r="G31">
+        <v>50.08</v>
+      </c>
+      <c r="H31">
+        <v>60.69</v>
+      </c>
+      <c r="I31">
+        <v>73.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>48.64</v>
+      </c>
+      <c r="C32">
+        <v>22.17</v>
+      </c>
+      <c r="D32">
+        <v>25.45</v>
+      </c>
+      <c r="E32">
+        <v>34.19</v>
+      </c>
+      <c r="F32">
+        <v>44.17</v>
+      </c>
+      <c r="G32">
+        <v>51.49</v>
+      </c>
+      <c r="H32">
+        <v>62.02</v>
+      </c>
+      <c r="I32">
+        <v>75.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>49.52</v>
+      </c>
+      <c r="C33">
+        <v>22.79</v>
+      </c>
+      <c r="D33">
+        <v>25.7</v>
+      </c>
+      <c r="E33">
+        <v>34.72</v>
+      </c>
+      <c r="F33">
+        <v>44.73</v>
+      </c>
+      <c r="G33">
+        <v>52.23</v>
+      </c>
+      <c r="H33">
+        <v>63.39</v>
+      </c>
+      <c r="I33">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>50.37</v>
+      </c>
+      <c r="C34">
+        <v>23.06</v>
+      </c>
+      <c r="D34">
+        <v>26.24</v>
+      </c>
+      <c r="E34">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F34">
+        <v>45.25</v>
+      </c>
+      <c r="G34">
+        <v>52.92</v>
+      </c>
+      <c r="H34">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I34">
+        <v>78.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>51.31</v>
+      </c>
+      <c r="C35">
+        <v>23.41</v>
+      </c>
+      <c r="D35">
+        <v>26.97</v>
+      </c>
+      <c r="E35">
+        <v>36.18</v>
+      </c>
+      <c r="F35">
+        <v>45.85</v>
+      </c>
+      <c r="G35">
+        <v>53.94</v>
+      </c>
+      <c r="H35">
+        <v>66.09</v>
+      </c>
+      <c r="I35">
+        <v>79.819999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>52.36</v>
+      </c>
+      <c r="C36">
+        <v>23.63</v>
+      </c>
+      <c r="D36">
+        <v>27.67</v>
+      </c>
+      <c r="E36">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="F36">
+        <v>46.84</v>
+      </c>
+      <c r="G36">
+        <v>55.22</v>
+      </c>
+      <c r="H36">
+        <v>67.45</v>
+      </c>
+      <c r="I36">
+        <v>81.319999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>53.36</v>
+      </c>
+      <c r="C37">
+        <v>23.89</v>
+      </c>
+      <c r="D37">
+        <v>28.33</v>
+      </c>
+      <c r="E37">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="F37">
+        <v>47.83</v>
+      </c>
+      <c r="G37">
+        <v>56.7</v>
+      </c>
+      <c r="H37">
+        <v>68.8</v>
+      </c>
+      <c r="I37">
+        <v>82.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>54.33</v>
+      </c>
+      <c r="C38">
+        <v>24.19</v>
+      </c>
+      <c r="D38">
+        <v>29.15</v>
+      </c>
+      <c r="E38">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="F38">
+        <v>48.87</v>
+      </c>
+      <c r="G38">
+        <v>58.13</v>
+      </c>
+      <c r="H38">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="I38">
+        <v>84.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>55.25</v>
+      </c>
+      <c r="C39">
+        <v>24.44</v>
+      </c>
+      <c r="D39">
+        <v>29.69</v>
+      </c>
+      <c r="E39">
+        <v>38.67</v>
+      </c>
+      <c r="F39">
+        <v>49.74</v>
+      </c>
+      <c r="G39">
+        <v>59.65</v>
+      </c>
+      <c r="H39">
+        <v>70.63</v>
+      </c>
+      <c r="I39">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>56.2</v>
+      </c>
+      <c r="C40">
+        <v>24.68</v>
+      </c>
+      <c r="D40">
+        <v>30.41</v>
+      </c>
+      <c r="E40">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="F40">
+        <v>50.73</v>
+      </c>
+      <c r="G40">
+        <v>61.31</v>
+      </c>
+      <c r="H40">
+        <v>71.44</v>
+      </c>
+      <c r="I40">
+        <v>86.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>57.24</v>
+      </c>
+      <c r="C41">
+        <v>24.92</v>
+      </c>
+      <c r="D41">
+        <v>31.12</v>
+      </c>
+      <c r="E41">
+        <v>39.61</v>
+      </c>
+      <c r="F41">
+        <v>51.78</v>
+      </c>
+      <c r="G41">
+        <v>62.76</v>
+      </c>
+      <c r="H41">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="I41">
+        <v>88.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>58.18</v>
+      </c>
+      <c r="C42">
+        <v>25.18</v>
+      </c>
+      <c r="D42">
+        <v>31.78</v>
+      </c>
+      <c r="E42">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="F42">
+        <v>52.86</v>
+      </c>
+      <c r="G42">
+        <v>63.77</v>
+      </c>
+      <c r="H42">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="I42">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>25.45</v>
+      </c>
+      <c r="D43">
+        <v>32.31</v>
+      </c>
+      <c r="E43">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="F43">
+        <v>53.33</v>
+      </c>
+      <c r="G43">
+        <v>64.84</v>
+      </c>
+      <c r="H43">
+        <v>76.56</v>
+      </c>
+      <c r="I43">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>59.81</v>
+      </c>
+      <c r="C44">
+        <v>25.64</v>
+      </c>
+      <c r="D44">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="E44">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="F44">
+        <v>54.22</v>
+      </c>
+      <c r="G44">
+        <v>65.98</v>
+      </c>
+      <c r="H44">
+        <v>77.61</v>
+      </c>
+      <c r="I44">
+        <v>91.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>60.66</v>
+      </c>
+      <c r="C45">
+        <v>25.93</v>
+      </c>
+      <c r="D45">
+        <v>32.79</v>
+      </c>
+      <c r="E45">
+        <v>41.27</v>
+      </c>
+      <c r="F45">
+        <v>55.12</v>
+      </c>
+      <c r="G45">
+        <v>67.56</v>
+      </c>
+      <c r="H45">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="I45">
+        <v>93.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>61.41</v>
+      </c>
+      <c r="C46">
+        <v>26.11</v>
+      </c>
+      <c r="D46">
+        <v>33.03</v>
+      </c>
+      <c r="E46">
+        <v>41.63</v>
+      </c>
+      <c r="F46">
+        <v>56.01</v>
+      </c>
+      <c r="G46">
+        <v>68.64</v>
+      </c>
+      <c r="H46">
+        <v>79.5</v>
+      </c>
+      <c r="I46">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>62.14</v>
+      </c>
+      <c r="C47">
+        <v>26.28</v>
+      </c>
+      <c r="D47">
+        <v>33.26</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+      <c r="F47">
+        <v>56.91</v>
+      </c>
+      <c r="G47">
+        <v>69.39</v>
+      </c>
+      <c r="H47">
+        <v>80.36</v>
+      </c>
+      <c r="I47">
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>62.87</v>
+      </c>
+      <c r="C48">
+        <v>26.51</v>
+      </c>
+      <c r="D48">
+        <v>33.5</v>
+      </c>
+      <c r="E48">
+        <v>42.36</v>
+      </c>
+      <c r="F48">
+        <v>57.8</v>
+      </c>
+      <c r="G48">
+        <v>70.17</v>
+      </c>
+      <c r="H48">
+        <v>81.23</v>
+      </c>
+      <c r="I48">
+        <v>96.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>63.58</v>
+      </c>
+      <c r="C49">
+        <v>26.71</v>
+      </c>
+      <c r="D49">
+        <v>33.74</v>
+      </c>
+      <c r="E49">
+        <v>42.72</v>
+      </c>
+      <c r="F49">
+        <v>58.7</v>
+      </c>
+      <c r="G49">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H49">
+        <v>82.16</v>
+      </c>
+      <c r="I49">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="C50">
+        <v>26.93</v>
+      </c>
+      <c r="D50">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="E50">
+        <v>43.08</v>
+      </c>
+      <c r="F50">
+        <v>59.59</v>
+      </c>
+      <c r="G50">
+        <v>71.81</v>
+      </c>
+      <c r="H50">
+        <v>82.94</v>
+      </c>
+      <c r="I50">
+        <v>98.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>65.02</v>
+      </c>
+      <c r="C51">
+        <v>27.14</v>
+      </c>
+      <c r="D51">
+        <v>34.21</v>
+      </c>
+      <c r="E51">
+        <v>43.45</v>
+      </c>
+      <c r="F51">
+        <v>60.49</v>
+      </c>
+      <c r="G51">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="H51">
+        <v>83.81</v>
+      </c>
+      <c r="I51">
+        <v>99.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="C52">
+        <v>27.25</v>
+      </c>
+      <c r="D52">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="E52">
+        <v>43.81</v>
+      </c>
+      <c r="F52">
+        <v>61.38</v>
+      </c>
+      <c r="G52">
+        <v>73.81</v>
+      </c>
+      <c r="H52">
+        <v>84.88</v>
+      </c>
+      <c r="I52">
+        <v>100.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>66.56</v>
+      </c>
+      <c r="C53">
+        <v>27.65</v>
+      </c>
+      <c r="D53">
+        <v>34.69</v>
+      </c>
+      <c r="E53">
+        <v>44.16</v>
+      </c>
+      <c r="F53">
+        <v>62.43</v>
+      </c>
+      <c r="G53">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="H53">
+        <v>86.09</v>
+      </c>
+      <c r="I53">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>67.27</v>
+      </c>
+      <c r="C54">
+        <v>28.07</v>
+      </c>
+      <c r="D54">
+        <v>34.93</v>
+      </c>
+      <c r="E54">
+        <v>44.52</v>
+      </c>
+      <c r="F54">
+        <v>62.87</v>
+      </c>
+      <c r="G54">
+        <v>75.55</v>
+      </c>
+      <c r="H54">
+        <v>87.39</v>
+      </c>
+      <c r="I54">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="C55">
+        <v>28.59</v>
+      </c>
+      <c r="D55">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="E55">
+        <v>44.89</v>
+      </c>
+      <c r="F55">
+        <v>63.38</v>
+      </c>
+      <c r="G55">
+        <v>76.19</v>
+      </c>
+      <c r="H55">
+        <v>88.82</v>
+      </c>
+      <c r="I55">
+        <v>104.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>68.81</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="E56">
+        <v>45.24</v>
+      </c>
+      <c r="F56">
+        <v>63.93</v>
+      </c>
+      <c r="G56">
+        <v>76.73</v>
+      </c>
+      <c r="H56">
+        <v>90.09</v>
+      </c>
+      <c r="I56">
+        <v>105.57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="C57">
+        <v>29.46</v>
+      </c>
+      <c r="D57">
+        <v>35.64</v>
+      </c>
+      <c r="E57">
+        <v>45.61</v>
+      </c>
+      <c r="F57">
+        <v>64.34</v>
+      </c>
+      <c r="G57">
+        <v>77.36</v>
+      </c>
+      <c r="H57">
+        <v>91.52</v>
+      </c>
+      <c r="I57">
+        <v>106.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="C58">
+        <v>29.86</v>
+      </c>
+      <c r="D58">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="E58">
+        <v>45.97</v>
+      </c>
+      <c r="F58">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="G58">
+        <v>77.88</v>
+      </c>
+      <c r="H58">
+        <v>92.81</v>
+      </c>
+      <c r="I58">
+        <v>108.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>70.89</v>
+      </c>
+      <c r="C59">
+        <v>30.34</v>
+      </c>
+      <c r="D59">
+        <v>36.11</v>
+      </c>
+      <c r="E59">
+        <v>46.34</v>
+      </c>
+      <c r="F59">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="G59">
+        <v>78.47</v>
+      </c>
+      <c r="H59">
+        <v>94.22</v>
+      </c>
+      <c r="I59">
+        <v>109.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="C60">
+        <v>30.79</v>
+      </c>
+      <c r="D60">
+        <v>36.35</v>
+      </c>
+      <c r="E60">
+        <v>46.69</v>
+      </c>
+      <c r="F60">
+        <v>65.62</v>
+      </c>
+      <c r="G60">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="H60">
+        <v>95.47</v>
+      </c>
+      <c r="I60">
+        <v>109.94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>72.010000000000005</v>
+      </c>
+      <c r="C61">
+        <v>31.23</v>
+      </c>
+      <c r="D61">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="E61">
+        <v>47.05</v>
+      </c>
+      <c r="F61">
+        <v>66.02</v>
+      </c>
+      <c r="G61">
+        <v>79.38</v>
+      </c>
+      <c r="H61">
+        <v>96.12</v>
+      </c>
+      <c r="I61">
+        <v>110.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="C62">
+        <v>31.63</v>
+      </c>
+      <c r="D62">
+        <v>36.82</v>
+      </c>
+      <c r="E62">
+        <v>47.41</v>
+      </c>
+      <c r="F62">
+        <v>66.38</v>
+      </c>
+      <c r="G62">
+        <v>79.78</v>
+      </c>
+      <c r="H62">
+        <v>96.68</v>
+      </c>
+      <c r="I62">
+        <v>111.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>